--- a/WAGES PACKAGE.xlsx
+++ b/WAGES PACKAGE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deban\source\repos\PayRoll\PayRoll_IIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deban\source\repos\PayRoll\payroll_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387601E4-642A-4994-A8BA-391DDDEC228D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762CD24C-88CF-4F52-A853-A1DBC5D4DD1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -779,13 +779,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A423"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
